--- a/ProjectDocuments/FinalDoc/FileToPrint/BangDanhGiaThanhVien.xlsx
+++ b/ProjectDocuments/FinalDoc/FileToPrint/BangDanhGiaThanhVien.xlsx
@@ -350,9 +350,6 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -361,9 +358,6 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -381,14 +375,20 @@
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -763,885 +763,885 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="7">
+      <c r="A4" s="18">
         <v>11</v>
       </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1</v>
-      </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="10">
+        <v>1</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8">
+      <c r="A5" s="18"/>
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1</v>
-      </c>
-      <c r="H5" s="11">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1</v>
-      </c>
-      <c r="J5" s="11">
-        <v>1</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1</v>
+      </c>
+      <c r="J5" s="10">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8">
+      <c r="A6" s="18"/>
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11">
-        <v>1</v>
-      </c>
-      <c r="G6" s="11">
-        <v>1</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11">
-        <v>1</v>
-      </c>
-      <c r="J6" s="11">
-        <v>1</v>
-      </c>
-      <c r="K6" s="11">
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1</v>
+      </c>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8">
+      <c r="A7" s="18"/>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11">
-        <v>1</v>
-      </c>
-      <c r="H7" s="11">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11">
-        <v>1</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1</v>
+      </c>
+      <c r="K7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8">
+      <c r="A8" s="18"/>
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="12">
+      <c r="A9" s="21">
         <v>12</v>
       </c>
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16">
-        <v>1</v>
-      </c>
-      <c r="J9" s="16">
-        <v>1</v>
-      </c>
-      <c r="K9" s="16">
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1</v>
+      </c>
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13">
+      <c r="A10" s="21"/>
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16">
-        <v>1</v>
-      </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-      <c r="K10" s="16">
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1</v>
+      </c>
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
         <v>1</v>
       </c>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13">
+      <c r="A11" s="21"/>
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
         <v>0.75</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="16">
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14">
         <v>0.75</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13">
+      <c r="A12" s="21"/>
+      <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16">
-        <v>1</v>
-      </c>
-      <c r="K12" s="16">
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14">
+        <v>1</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13">
+      <c r="A13" s="21"/>
+      <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16">
-        <v>1</v>
-      </c>
-      <c r="K13" s="16">
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14">
+        <v>1</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="7">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="7">
+        <v>1</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="11">
-        <v>1</v>
-      </c>
-      <c r="F14" s="11">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11">
-        <v>1</v>
-      </c>
-      <c r="H14" s="11">
-        <v>1</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1</v>
-      </c>
-      <c r="J14" s="11">
-        <v>1</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10">
+        <v>1</v>
+      </c>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8">
+      <c r="A15" s="18"/>
+      <c r="B15" s="7">
         <v>2</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11">
-        <v>1</v>
-      </c>
-      <c r="H15" s="11">
-        <v>1</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <v>1</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10">
+        <v>1</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1</v>
+      </c>
+      <c r="K15" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8">
+      <c r="A16" s="18"/>
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="11">
-        <v>1</v>
-      </c>
-      <c r="F16" s="11">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="11">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1</v>
-      </c>
-      <c r="J16" s="11">
-        <v>1</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10">
+        <v>1</v>
+      </c>
+      <c r="I16" s="10">
+        <v>1</v>
+      </c>
+      <c r="J16" s="10">
+        <v>1</v>
+      </c>
+      <c r="K16" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8">
+      <c r="A17" s="18"/>
+      <c r="B17" s="7">
         <v>4</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-      <c r="F17" s="11">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="11">
-        <v>1</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1</v>
-      </c>
-      <c r="J17" s="11">
-        <v>1</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>1</v>
+      </c>
+      <c r="J17" s="10">
+        <v>1</v>
+      </c>
+      <c r="K17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8">
+      <c r="A18" s="18"/>
+      <c r="B18" s="7">
         <v>5</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="11">
-        <v>1</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1</v>
-      </c>
-      <c r="H18" s="11">
-        <v>1</v>
-      </c>
-      <c r="I18" s="11">
-        <v>1</v>
-      </c>
-      <c r="J18" s="11">
-        <v>1</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="10">
+        <v>1</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1</v>
+      </c>
+      <c r="K18" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="12">
+      <c r="A19" s="21">
         <v>14</v>
       </c>
-      <c r="B19" s="13">
-        <v>1</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="16">
-        <v>1</v>
-      </c>
-      <c r="F19" s="16">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="16">
-        <v>1</v>
-      </c>
-      <c r="I19" s="16">
-        <v>1</v>
-      </c>
-      <c r="J19" s="16">
-        <v>1</v>
-      </c>
-      <c r="K19" s="16">
+      <c r="E19" s="14">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13">
+      <c r="A20" s="21"/>
+      <c r="B20" s="11">
         <v>2</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="16">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="16">
-        <v>1</v>
-      </c>
-      <c r="I20" s="16">
-        <v>1</v>
-      </c>
-      <c r="J20" s="16">
-        <v>1</v>
-      </c>
-      <c r="K20" s="16">
+      <c r="E20" s="14">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14">
+        <v>1</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13">
+      <c r="A21" s="21"/>
+      <c r="B21" s="11">
         <v>3</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="16">
-        <v>1</v>
-      </c>
-      <c r="F21" s="16">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="16">
-        <v>1</v>
-      </c>
-      <c r="I21" s="16">
-        <v>1</v>
-      </c>
-      <c r="J21" s="16">
-        <v>1</v>
-      </c>
-      <c r="K21" s="16">
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1</v>
+      </c>
+      <c r="I21" s="14">
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13">
+      <c r="A22" s="21"/>
+      <c r="B22" s="11">
         <v>4</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="16">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="16">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16">
-        <v>1</v>
-      </c>
-      <c r="J22" s="16">
-        <v>1</v>
-      </c>
-      <c r="K22" s="16">
+      <c r="E22" s="14">
+        <v>1</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14">
+        <v>1</v>
+      </c>
+      <c r="I22" s="14">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13">
+      <c r="A23" s="21"/>
+      <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1</v>
-      </c>
-      <c r="J23" s="16">
-        <v>1</v>
-      </c>
-      <c r="K23" s="16">
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>1</v>
+      </c>
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14">
+        <v>1</v>
+      </c>
+      <c r="K23" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="7">
+      <c r="A24" s="18">
         <v>15</v>
       </c>
-      <c r="B24" s="8">
-        <v>1</v>
-      </c>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="11">
-        <v>1</v>
-      </c>
-      <c r="F24" s="11">
-        <v>1</v>
-      </c>
-      <c r="G24" s="11">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11">
-        <v>1</v>
-      </c>
-      <c r="I24" s="11">
-        <v>1</v>
-      </c>
-      <c r="J24" s="11">
-        <v>1</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10">
+        <v>1</v>
+      </c>
+      <c r="J24" s="10">
+        <v>1</v>
+      </c>
+      <c r="K24" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8">
+      <c r="A25" s="18"/>
+      <c r="B25" s="7">
         <v>2</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="11">
-        <v>1</v>
-      </c>
-      <c r="F25" s="11">
-        <v>1</v>
-      </c>
-      <c r="G25" s="11">
-        <v>1</v>
-      </c>
-      <c r="H25" s="11">
-        <v>1</v>
-      </c>
-      <c r="I25" s="11">
-        <v>1</v>
-      </c>
-      <c r="J25" s="11">
-        <v>1</v>
-      </c>
-      <c r="K25" s="11">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10">
+        <v>1</v>
+      </c>
+      <c r="K25" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8">
+      <c r="A26" s="18"/>
+      <c r="B26" s="7">
         <v>3</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="11">
-        <v>1</v>
-      </c>
-      <c r="F26" s="11">
-        <v>1</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1</v>
-      </c>
-      <c r="H26" s="11">
-        <v>1</v>
-      </c>
-      <c r="I26" s="11">
-        <v>1</v>
-      </c>
-      <c r="J26" s="11">
-        <v>1</v>
-      </c>
-      <c r="K26" s="11">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10">
+        <v>1</v>
+      </c>
+      <c r="J26" s="10">
+        <v>1</v>
+      </c>
+      <c r="K26" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8">
+      <c r="A27" s="18"/>
+      <c r="B27" s="7">
         <v>4</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="11">
-        <v>1</v>
-      </c>
-      <c r="F27" s="11">
-        <v>1</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1</v>
-      </c>
-      <c r="H27" s="11">
-        <v>1</v>
-      </c>
-      <c r="I27" s="11">
-        <v>1</v>
-      </c>
-      <c r="J27" s="11">
-        <v>1</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10">
+        <v>1</v>
+      </c>
+      <c r="J27" s="10">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8">
+      <c r="A28" s="18"/>
+      <c r="B28" s="7">
         <v>5</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E28" s="11">
-        <v>1</v>
-      </c>
-      <c r="F28" s="11">
-        <v>1</v>
-      </c>
-      <c r="G28" s="11">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11">
-        <v>1</v>
-      </c>
-      <c r="I28" s="11">
-        <v>1</v>
-      </c>
-      <c r="J28" s="11">
-        <v>1</v>
-      </c>
-      <c r="K28" s="11">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1652,7 +1652,7 @@
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="1.2" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
